--- a/Data_file/import_PO_05.xlsx
+++ b/Data_file/import_PO_05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084"/>
+    <workbookView minimized="1" xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -3406,7 +3406,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3429,6 +3429,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3577,7 +3583,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3652,6 +3658,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4785,8 +4818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4962,8 +4995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M493"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="A159" sqref="A159:XFD161"/>
+    <sheetView tabSelected="1" topLeftCell="C58" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5023,2289 +5056,2289 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A2" s="25" t="s">
         <v>880</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="26">
         <v>45779</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="26">
         <v>45780</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="27">
         <v>738.32</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="28">
         <v>1</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="10" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="L2" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M2" s="23"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="L2" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M2" s="32"/>
+    </row>
+    <row r="3" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A3" s="25" t="s">
         <v>880</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="26">
         <v>45779</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="26">
         <v>45780</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="27">
         <v>841.12</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="28">
         <v>1</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="L3" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M3" s="23"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="L3" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M3" s="32"/>
+    </row>
+    <row r="4" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A4" s="25" t="s">
         <v>880</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="26">
         <v>45779</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="26">
         <v>45780</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="27">
         <v>1121.5</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="28">
         <v>1</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="10" t="s">
+      <c r="J4" s="29"/>
+      <c r="K4" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="L4" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M4" s="23"/>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="L4" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M4" s="32"/>
+    </row>
+    <row r="5" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A5" s="25" t="s">
         <v>881</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="26">
         <v>45782</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="25" t="s">
         <v>1005</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="25" t="s">
         <v>1006</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="26">
         <v>45794</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="27">
         <v>880</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="28">
         <v>10</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="7" t="s">
+      <c r="J5" s="29"/>
+      <c r="K5" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="L5" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M5" s="23" t="s">
+      <c r="L5" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M5" s="32" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A6" s="25" t="s">
         <v>882</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="26">
         <v>45782</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="25" t="s">
         <v>560</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="25" t="s">
         <v>561</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="26">
         <v>45794</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="27">
         <v>300</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="28">
         <v>5</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M6" s="23" t="s">
+      <c r="J6" s="29"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M6" s="32" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A7" s="25" t="s">
         <v>882</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="26">
         <v>45782</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="25" t="s">
         <v>560</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="25" t="s">
         <v>561</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="26">
         <v>45794</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="27">
         <v>300</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="28">
         <v>6</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M7" s="23" t="s">
+      <c r="J7" s="29"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M7" s="32" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A8" s="25" t="s">
         <v>882</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="26">
         <v>45782</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="25" t="s">
         <v>560</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="25" t="s">
         <v>561</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="26">
         <v>45794</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="27">
         <v>65</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="28">
         <v>10</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M8" s="23" t="s">
+      <c r="J8" s="29"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M8" s="32" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A9" s="25" t="s">
         <v>882</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="26">
         <v>45782</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="25" t="s">
         <v>560</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="25" t="s">
         <v>561</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="26">
         <v>45794</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="27">
         <v>360</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="28">
         <v>5</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="7" t="s">
+      <c r="J9" s="29"/>
+      <c r="K9" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="L9" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M9" s="23" t="s">
+      <c r="L9" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M9" s="32" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A10" s="25" t="s">
         <v>882</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="26">
         <v>45782</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="25" t="s">
         <v>560</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="25" t="s">
         <v>561</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="26">
         <v>45794</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="27">
         <v>220</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="28">
         <v>10</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="7" t="s">
+      <c r="J10" s="29"/>
+      <c r="K10" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="L10" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M10" s="23" t="s">
+      <c r="L10" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M10" s="32" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A11" s="25" t="s">
         <v>883</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="26">
         <v>45782</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="25" t="s">
         <v>1007</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="25" t="s">
         <v>1008</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="26">
         <v>45794</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="27">
         <v>577</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="28">
         <v>40</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M11" s="23" t="s">
+      <c r="J11" s="29"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M11" s="32" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A12" s="25" t="s">
         <v>884</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="26">
         <v>45782</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="25" t="s">
         <v>1009</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="25" t="s">
         <v>1010</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="26">
         <v>45794</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="27">
         <v>1925</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="28">
         <v>12</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="7" t="s">
+      <c r="J12" s="29"/>
+      <c r="K12" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="L12" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M12" s="23" t="s">
+      <c r="L12" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M12" s="32" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A13" s="25" t="s">
         <v>885</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="26">
         <v>45782</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="25" t="s">
         <v>1011</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="25" t="s">
         <v>1012</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="26">
         <v>45794</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="27">
         <v>500</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="28">
         <v>80</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="7" t="s">
+      <c r="J13" s="29"/>
+      <c r="K13" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="L13" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M13" s="23" t="s">
+      <c r="L13" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M13" s="32" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A14" s="25" t="s">
         <v>886</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="26">
         <v>45782</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="25" t="s">
         <v>1013</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="25" t="s">
         <v>1014</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="26">
         <v>45786</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="27">
         <v>40.53</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="28">
         <v>400</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="7" t="s">
+      <c r="J14" s="29"/>
+      <c r="K14" s="25" t="s">
         <v>877</v>
       </c>
-      <c r="L14" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M14" s="23" t="s">
+      <c r="L14" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M14" s="32" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A15" s="25" t="s">
         <v>886</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="26">
         <v>45782</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="25" t="s">
         <v>1013</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="25" t="s">
         <v>1014</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="26">
         <v>45786</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="27">
         <v>161</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="28">
         <v>200</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="7" t="s">
+      <c r="J15" s="29"/>
+      <c r="K15" s="25" t="s">
         <v>877</v>
       </c>
-      <c r="L15" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M15" s="23" t="s">
+      <c r="L15" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M15" s="32" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A16" s="25" t="s">
         <v>887</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="26">
         <v>45782</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="25" t="s">
         <v>1015</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="25" t="s">
         <v>1016</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="26">
         <v>45793</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="27">
         <v>171</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="28">
         <v>300</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="7" t="s">
+      <c r="J16" s="29"/>
+      <c r="K16" s="25" t="s">
         <v>875</v>
       </c>
-      <c r="L16" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M16" s="23" t="s">
+      <c r="L16" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M16" s="32" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A17" s="25" t="s">
         <v>888</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="26">
         <v>45782</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="25" t="s">
         <v>1013</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="25" t="s">
         <v>1014</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="26">
         <v>45786</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="27">
         <v>205.39</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="28">
         <v>200</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="7" t="s">
+      <c r="J17" s="29"/>
+      <c r="K17" s="25" t="s">
         <v>875</v>
       </c>
-      <c r="L17" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M17" s="23" t="s">
+      <c r="L17" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M17" s="32" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A18" s="25" t="s">
         <v>889</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="26">
         <v>45782</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="25" t="s">
         <v>1017</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="25" t="s">
         <v>1018</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="26">
         <v>45790</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="27">
         <v>17</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="28">
         <v>800</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="7" t="s">
+      <c r="J18" s="29"/>
+      <c r="K18" s="25" t="s">
         <v>875</v>
       </c>
-      <c r="L18" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M18" s="23" t="s">
+      <c r="L18" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M18" s="32" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A19" s="25" t="s">
         <v>889</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="26">
         <v>45782</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="25" t="s">
         <v>1017</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="25" t="s">
         <v>1018</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="26">
         <v>45786</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="27">
         <v>182</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="28">
         <v>200</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="7" t="s">
+      <c r="J19" s="29"/>
+      <c r="K19" s="25" t="s">
         <v>875</v>
       </c>
-      <c r="L19" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M19" s="23" t="s">
+      <c r="L19" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M19" s="32" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A20" s="25" t="s">
         <v>890</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="26">
         <v>45782</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="25" t="s">
         <v>1019</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="26">
         <v>45783</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="27">
         <v>1121.5</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="28">
         <v>1</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="10" t="s">
+      <c r="J20" s="29"/>
+      <c r="K20" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="L20" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M20" s="23"/>
-    </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A21" s="7" t="s">
+      <c r="L20" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M20" s="32"/>
+    </row>
+    <row r="21" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A21" s="25" t="s">
         <v>891</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="26">
         <v>45782</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="25" t="s">
         <v>1019</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="26">
         <v>45783</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="27">
         <v>1121.5</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="28">
         <v>1</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="10" t="s">
+      <c r="J21" s="29"/>
+      <c r="K21" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="L21" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M21" s="23"/>
-    </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A22" s="7" t="s">
+      <c r="L21" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M21" s="32"/>
+    </row>
+    <row r="22" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A22" s="25" t="s">
         <v>892</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="26">
         <v>45782</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="26">
         <v>45783</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="27">
         <v>841.12</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="28">
         <v>1</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="10" t="s">
+      <c r="J22" s="29"/>
+      <c r="K22" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="L22" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M22" s="23"/>
-    </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A23" s="7" t="s">
+      <c r="L22" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M22" s="32"/>
+    </row>
+    <row r="23" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A23" s="25" t="s">
         <v>892</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="26">
         <v>45782</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="26">
         <v>45783</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="27">
         <v>738.32</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="28">
         <v>1</v>
       </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="10" t="s">
+      <c r="J23" s="29"/>
+      <c r="K23" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="L23" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M23" s="23"/>
-    </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A24" s="7" t="s">
+      <c r="L23" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M23" s="32"/>
+    </row>
+    <row r="24" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A24" s="25" t="s">
         <v>893</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="26">
         <v>45782</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="26">
         <v>45783</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="27">
         <v>738.32</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="28">
         <v>1</v>
       </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="10" t="s">
+      <c r="J24" s="29"/>
+      <c r="K24" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="L24" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M24" s="23"/>
-    </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A25" s="7" t="s">
+      <c r="L24" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M24" s="32"/>
+    </row>
+    <row r="25" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A25" s="25" t="s">
         <v>893</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="26">
         <v>45782</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="26">
         <v>45783</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="27">
         <v>841.12</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="28">
         <v>1</v>
       </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="10" t="s">
+      <c r="J25" s="29"/>
+      <c r="K25" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="L25" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M25" s="23"/>
-    </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A26" s="7" t="s">
+      <c r="L25" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M25" s="32"/>
+    </row>
+    <row r="26" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A26" s="25" t="s">
         <v>893</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="26">
         <v>45782</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="26">
         <v>45783</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="27">
         <v>1121.5</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="28">
         <v>1</v>
       </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="10" t="s">
+      <c r="J26" s="29"/>
+      <c r="K26" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="L26" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M26" s="23"/>
-    </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A27" s="7" t="s">
+      <c r="L26" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M26" s="32"/>
+    </row>
+    <row r="27" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A27" s="25" t="s">
         <v>893</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="26">
         <v>45782</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="26">
         <v>45783</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="27">
         <v>2523.36</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="28">
         <v>1</v>
       </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="10" t="s">
+      <c r="J27" s="29"/>
+      <c r="K27" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="L27" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M27" s="23"/>
-    </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A28" s="7" t="s">
+      <c r="L27" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M27" s="32"/>
+    </row>
+    <row r="28" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A28" s="25" t="s">
         <v>893</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="26">
         <v>45782</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="26">
         <v>45783</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="27">
         <v>1028.04</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="28">
         <v>1</v>
       </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="10" t="s">
+      <c r="J28" s="29"/>
+      <c r="K28" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="L28" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M28" s="23"/>
-    </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A29" s="7" t="s">
+      <c r="L28" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M28" s="32"/>
+    </row>
+    <row r="29" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A29" s="25" t="s">
         <v>893</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="26">
         <v>45782</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="26">
         <v>45783</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="27">
         <v>1028.04</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="28">
         <v>1</v>
       </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="10" t="s">
+      <c r="J29" s="29"/>
+      <c r="K29" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="L29" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M29" s="23"/>
-    </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A30" s="7" t="s">
+      <c r="L29" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M29" s="32"/>
+    </row>
+    <row r="30" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A30" s="25" t="s">
         <v>893</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="26">
         <v>45782</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="26">
         <v>45783</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="27">
         <v>1168.22</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="28">
         <v>1</v>
       </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="10" t="s">
+      <c r="J30" s="29"/>
+      <c r="K30" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="L30" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M30" s="23"/>
-    </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A31" s="7" t="s">
+      <c r="L30" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M30" s="32"/>
+    </row>
+    <row r="31" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A31" s="25" t="s">
         <v>893</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="26">
         <v>45782</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="26">
         <v>45783</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="27">
         <v>1775.7</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="28">
         <v>1</v>
       </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="10" t="s">
+      <c r="J31" s="29"/>
+      <c r="K31" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="L31" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M31" s="23"/>
-    </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A32" s="7" t="s">
+      <c r="L31" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M31" s="32"/>
+    </row>
+    <row r="32" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A32" s="25" t="s">
         <v>894</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="26">
         <v>45782</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="26">
         <v>45783</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="27">
         <v>2803.74</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="28">
         <v>1</v>
       </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="10" t="s">
+      <c r="J32" s="29"/>
+      <c r="K32" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="L32" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M32" s="23"/>
-    </row>
-    <row r="33" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A33" s="7" t="s">
+      <c r="L32" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M32" s="32"/>
+    </row>
+    <row r="33" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A33" s="25" t="s">
         <v>895</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="26">
         <v>45783</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="25" t="s">
         <v>1021</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="25" t="s">
         <v>1022</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="26">
         <v>45782</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="27">
         <v>300</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="28">
         <v>4</v>
       </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="7" t="s">
+      <c r="J33" s="29"/>
+      <c r="K33" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="L33" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M33" s="23" t="s">
+      <c r="L33" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M33" s="32" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A34" s="25" t="s">
         <v>896</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="26">
         <v>45783</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="25" t="s">
         <v>1023</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="25" t="s">
         <v>1024</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="26">
         <v>45790</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="27">
         <v>84</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="28">
         <v>10</v>
       </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="7" t="s">
+      <c r="J34" s="29"/>
+      <c r="K34" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="L34" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M34" s="23" t="s">
+      <c r="L34" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M34" s="32" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A35" s="25" t="s">
         <v>896</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="26">
         <v>45783</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="25" t="s">
         <v>1023</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="25" t="s">
         <v>1024</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="26">
         <v>45790</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="27">
         <v>9</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="28">
         <v>100</v>
       </c>
-      <c r="J35" s="5"/>
-      <c r="K35" s="7" t="s">
+      <c r="J35" s="29"/>
+      <c r="K35" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="L35" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M35" s="23" t="s">
+      <c r="L35" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M35" s="32" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A36" s="25" t="s">
         <v>896</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="26">
         <v>45783</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="25" t="s">
         <v>1023</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="25" t="s">
         <v>1024</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="26">
         <v>45790</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="27">
         <v>1.4</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="28">
         <v>150</v>
       </c>
-      <c r="J36" s="5"/>
-      <c r="K36" s="7" t="s">
+      <c r="J36" s="29"/>
+      <c r="K36" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="L36" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M36" s="23" t="s">
+      <c r="L36" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M36" s="32" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A37" s="25" t="s">
         <v>896</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="26">
         <v>45783</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="25" t="s">
         <v>1023</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="25" t="s">
         <v>1024</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="26">
         <v>45790</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="27">
         <v>0.16</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="28">
         <v>5000</v>
       </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="7" t="s">
+      <c r="J37" s="29"/>
+      <c r="K37" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="L37" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M37" s="23" t="s">
+      <c r="L37" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M37" s="32" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A38" s="25" t="s">
         <v>896</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="26">
         <v>45783</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="25" t="s">
         <v>1023</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="25" t="s">
         <v>1024</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="26">
         <v>45790</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="27">
         <v>1.3</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="28">
         <v>3000</v>
       </c>
-      <c r="J38" s="5"/>
-      <c r="K38" s="7" t="s">
+      <c r="J38" s="29"/>
+      <c r="K38" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="L38" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M38" s="23" t="s">
+      <c r="L38" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M38" s="32" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A39" s="25" t="s">
         <v>896</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="26">
         <v>45783</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="25" t="s">
         <v>1023</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="25" t="s">
         <v>1024</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="26">
         <v>45790</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="27">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="28">
         <v>3000</v>
       </c>
-      <c r="J39" s="5"/>
-      <c r="K39" s="7" t="s">
+      <c r="J39" s="29"/>
+      <c r="K39" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="L39" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M39" s="23" t="s">
+      <c r="L39" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M39" s="32" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A40" s="25" t="s">
         <v>896</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="26">
         <v>45783</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="25" t="s">
         <v>1023</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="25" t="s">
         <v>1024</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="26">
         <v>45790</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="27">
         <v>8.5</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="28">
         <v>10</v>
       </c>
-      <c r="J40" s="5"/>
-      <c r="K40" s="7" t="s">
+      <c r="J40" s="29"/>
+      <c r="K40" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="L40" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M40" s="23" t="s">
+      <c r="L40" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M40" s="32" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A41" s="25" t="s">
         <v>896</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="26">
         <v>45783</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="25" t="s">
         <v>1023</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="25" t="s">
         <v>1024</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="26">
         <v>45790</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="27">
         <v>4.05</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="28">
         <v>1000</v>
       </c>
-      <c r="J41" s="5"/>
-      <c r="K41" s="7" t="s">
+      <c r="J41" s="29"/>
+      <c r="K41" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="L41" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M41" s="23" t="s">
+      <c r="L41" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M41" s="32" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A42" s="7" t="s">
+    <row r="42" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A42" s="25" t="s">
         <v>897</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="26">
         <v>45783</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="25" t="s">
         <v>1025</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="25" t="s">
         <v>1026</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="26">
         <v>45797</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="27">
         <v>4</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="28">
         <v>500</v>
       </c>
-      <c r="J42" s="5"/>
-      <c r="K42" s="7" t="s">
+      <c r="J42" s="29"/>
+      <c r="K42" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="L42" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M42" s="23" t="s">
+      <c r="L42" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M42" s="32" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A43" s="25" t="s">
         <v>897</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="26">
         <v>45783</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="25" t="s">
         <v>1025</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="25" t="s">
         <v>1026</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="26">
         <v>45797</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="27">
         <v>15.5</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="28">
         <v>150</v>
       </c>
-      <c r="J43" s="5"/>
-      <c r="K43" s="7" t="s">
+      <c r="J43" s="29"/>
+      <c r="K43" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="L43" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M43" s="23" t="s">
+      <c r="L43" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M43" s="32" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A44" s="7" t="s">
+    <row r="44" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A44" s="25" t="s">
         <v>897</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="26">
         <v>45783</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="25" t="s">
         <v>1025</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="25" t="s">
         <v>1026</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="26">
         <v>45797</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44" s="27">
         <v>50</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="28">
         <v>100</v>
       </c>
-      <c r="J44" s="5"/>
-      <c r="K44" s="7" t="s">
+      <c r="J44" s="29"/>
+      <c r="K44" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="L44" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M44" s="23" t="s">
+      <c r="L44" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M44" s="32" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A45" s="25" t="s">
         <v>897</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="26">
         <v>45783</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="25" t="s">
         <v>1025</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="25" t="s">
         <v>1026</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="26">
         <v>45797</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="27">
         <v>50</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="28">
         <v>100</v>
       </c>
-      <c r="J45" s="5"/>
-      <c r="K45" s="7" t="s">
+      <c r="J45" s="29"/>
+      <c r="K45" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="L45" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M45" s="23" t="s">
+      <c r="L45" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M45" s="32" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A46" s="7" t="s">
+    <row r="46" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A46" s="25" t="s">
         <v>898</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="26">
         <v>45783</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="25" t="s">
         <v>548</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="25" t="s">
         <v>549</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="26">
         <v>45790</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="27">
         <v>132</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="28">
         <v>10</v>
       </c>
-      <c r="J46" s="5"/>
-      <c r="K46" s="7" t="s">
+      <c r="J46" s="29"/>
+      <c r="K46" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="L46" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M46" s="23" t="s">
+      <c r="L46" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M46" s="32" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A47" s="25" t="s">
         <v>899</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="26">
         <v>45783</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="26">
         <v>45784</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="27">
         <v>50</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="28">
         <v>12</v>
       </c>
-      <c r="J47" s="5"/>
-      <c r="K47" s="7" t="s">
+      <c r="J47" s="29"/>
+      <c r="K47" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="L47" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M47" s="23" t="s">
+      <c r="L47" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M47" s="32" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A48" s="7" t="s">
+    <row r="48" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A48" s="25" t="s">
         <v>899</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="26">
         <v>45783</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="26">
         <v>45784</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="27">
         <v>50</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="28">
         <v>200</v>
       </c>
-      <c r="J48" s="5"/>
-      <c r="K48" s="7" t="s">
+      <c r="J48" s="29"/>
+      <c r="K48" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="L48" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M48" s="23" t="s">
+      <c r="L48" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M48" s="32" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A49" s="7" t="s">
+    <row r="49" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A49" s="25" t="s">
         <v>900</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="26">
         <v>45783</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="25" t="s">
         <v>1027</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="25" t="s">
         <v>1028</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="26">
         <v>45790</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="27">
         <v>0.87</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I49" s="28">
         <v>5000</v>
       </c>
-      <c r="J49" s="5"/>
-      <c r="K49" s="7" t="s">
+      <c r="J49" s="29"/>
+      <c r="K49" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="L49" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M49" s="23" t="s">
+      <c r="L49" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M49" s="32" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A50" s="7" t="s">
+    <row r="50" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A50" s="25" t="s">
         <v>901</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="26">
         <v>45783</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="25" t="s">
         <v>1029</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="25" t="s">
         <v>1030</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="26">
         <v>45790</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="27">
         <v>56.25</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I50" s="28">
         <v>10</v>
       </c>
-      <c r="J50" s="5"/>
-      <c r="K50" s="7" t="s">
+      <c r="J50" s="29"/>
+      <c r="K50" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="L50" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M50" s="23" t="s">
+      <c r="L50" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M50" s="32" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A51" s="7" t="s">
+    <row r="51" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A51" s="25" t="s">
         <v>902</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="26">
         <v>45783</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="25" t="s">
         <v>1031</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="25" t="s">
         <v>1032</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="26">
         <v>45790</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="G51" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="27">
         <v>3.6</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="28">
         <v>3000</v>
       </c>
-      <c r="J51" s="5"/>
-      <c r="K51" s="7" t="s">
+      <c r="J51" s="29"/>
+      <c r="K51" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="L51" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M51" s="23" t="s">
+      <c r="L51" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M51" s="32" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A52" s="7" t="s">
+    <row r="52" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A52" s="25" t="s">
         <v>903</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="26">
         <v>45783</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="25" t="s">
         <v>1033</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="25" t="s">
         <v>1034</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E52" s="26">
         <v>45786</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="G52" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="27">
         <v>1860.5</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I52" s="28">
         <v>17</v>
       </c>
-      <c r="J52" s="5"/>
-      <c r="K52" s="7" t="s">
+      <c r="J52" s="29"/>
+      <c r="K52" s="25" t="s">
         <v>875</v>
       </c>
-      <c r="L52" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M52" s="23" t="s">
+      <c r="L52" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M52" s="32" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A53" s="7" t="s">
+    <row r="53" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A53" s="25" t="s">
         <v>904</v>
       </c>
-      <c r="B53" s="16">
+      <c r="B53" s="26">
         <v>45783</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="25" t="s">
         <v>1017</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="25" t="s">
         <v>1018</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E53" s="26">
         <v>45790</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="G53" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H53" s="27">
         <v>99</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I53" s="28">
         <v>400</v>
       </c>
-      <c r="J53" s="5"/>
-      <c r="K53" s="7" t="s">
+      <c r="J53" s="29"/>
+      <c r="K53" s="25" t="s">
         <v>877</v>
       </c>
-      <c r="L53" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M53" s="23" t="s">
+      <c r="L53" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M53" s="32" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A54" s="7" t="s">
+    <row r="54" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A54" s="25" t="s">
         <v>905</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="26">
         <v>45783</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="26">
         <v>45784</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G54" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="27">
         <v>738.32</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I54" s="28">
         <v>1</v>
       </c>
-      <c r="J54" s="5"/>
-      <c r="K54" s="10" t="s">
+      <c r="J54" s="29"/>
+      <c r="K54" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="L54" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M54" s="23"/>
-    </row>
-    <row r="55" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A55" s="7" t="s">
+      <c r="L54" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M54" s="32"/>
+    </row>
+    <row r="55" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A55" s="25" t="s">
         <v>905</v>
       </c>
-      <c r="B55" s="16">
+      <c r="B55" s="26">
         <v>45783</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E55" s="26">
         <v>45784</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G55" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H55" s="27">
         <v>841.12</v>
       </c>
-      <c r="I55" s="9">
+      <c r="I55" s="28">
         <v>1</v>
       </c>
-      <c r="J55" s="5"/>
-      <c r="K55" s="10" t="s">
+      <c r="J55" s="29"/>
+      <c r="K55" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="L55" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M55" s="23"/>
-    </row>
-    <row r="56" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A56" s="7" t="s">
+      <c r="L55" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M55" s="32"/>
+    </row>
+    <row r="56" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A56" s="25" t="s">
         <v>905</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="26">
         <v>45783</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E56" s="26">
         <v>45784</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H56" s="27">
         <v>1121.5</v>
       </c>
-      <c r="I56" s="9">
+      <c r="I56" s="28">
         <v>1</v>
       </c>
-      <c r="J56" s="5"/>
-      <c r="K56" s="10" t="s">
+      <c r="J56" s="29"/>
+      <c r="K56" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="L56" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M56" s="23"/>
-    </row>
-    <row r="57" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A57" s="7" t="s">
+      <c r="L56" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M56" s="32"/>
+    </row>
+    <row r="57" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A57" s="25" t="s">
         <v>905</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="26">
         <v>45783</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57" s="26">
         <v>45784</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="G57" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="H57" s="8">
+      <c r="H57" s="27">
         <v>2523.36</v>
       </c>
-      <c r="I57" s="9">
+      <c r="I57" s="28">
         <v>1</v>
       </c>
-      <c r="J57" s="5"/>
-      <c r="K57" s="10" t="s">
+      <c r="J57" s="29"/>
+      <c r="K57" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="L57" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M57" s="23"/>
-    </row>
-    <row r="58" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A58" s="7" t="s">
+      <c r="L57" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M57" s="32"/>
+    </row>
+    <row r="58" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A58" s="25" t="s">
         <v>905</v>
       </c>
-      <c r="B58" s="16">
+      <c r="B58" s="26">
         <v>45783</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E58" s="26">
         <v>45784</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G58" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="H58" s="8">
+      <c r="H58" s="27">
         <v>1028.04</v>
       </c>
-      <c r="I58" s="9">
+      <c r="I58" s="28">
         <v>1</v>
       </c>
-      <c r="J58" s="5"/>
-      <c r="K58" s="10" t="s">
+      <c r="J58" s="29"/>
+      <c r="K58" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="L58" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M58" s="23"/>
-    </row>
-    <row r="59" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A59" s="7" t="s">
+      <c r="L58" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M58" s="32"/>
+    </row>
+    <row r="59" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A59" s="25" t="s">
         <v>905</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="26">
         <v>45783</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59" s="26">
         <v>45784</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="G59" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="H59" s="8">
+      <c r="H59" s="27">
         <v>1028.04</v>
       </c>
-      <c r="I59" s="9">
+      <c r="I59" s="28">
         <v>1</v>
       </c>
-      <c r="J59" s="5"/>
-      <c r="K59" s="10" t="s">
+      <c r="J59" s="29"/>
+      <c r="K59" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="L59" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M59" s="23"/>
-    </row>
-    <row r="60" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A60" s="7" t="s">
+      <c r="L59" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M59" s="32"/>
+    </row>
+    <row r="60" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A60" s="25" t="s">
         <v>905</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="26">
         <v>45783</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="26">
         <v>45784</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="H60" s="8">
+      <c r="H60" s="27">
         <v>1168.22</v>
       </c>
-      <c r="I60" s="9">
+      <c r="I60" s="28">
         <v>1</v>
       </c>
-      <c r="J60" s="5"/>
-      <c r="K60" s="10" t="s">
+      <c r="J60" s="29"/>
+      <c r="K60" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="L60" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M60" s="23"/>
-    </row>
-    <row r="61" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A61" s="7" t="s">
+      <c r="L60" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M60" s="32"/>
+    </row>
+    <row r="61" spans="1:13" s="33" customFormat="1" ht="49.65" customHeight="1">
+      <c r="A61" s="25" t="s">
         <v>905</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="26">
         <v>45783</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E61" s="26">
         <v>45784</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G61" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="H61" s="8">
+      <c r="H61" s="27">
         <v>1775.7</v>
       </c>
-      <c r="I61" s="9">
+      <c r="I61" s="28">
         <v>1</v>
       </c>
-      <c r="J61" s="5"/>
-      <c r="K61" s="10" t="s">
+      <c r="J61" s="29"/>
+      <c r="K61" s="30" t="s">
         <v>874</v>
       </c>
-      <c r="L61" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M61" s="23"/>
+      <c r="L61" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M61" s="32"/>
     </row>
     <row r="62" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A62" s="7" t="s">
